--- a/SAShw2.xlsx
+++ b/SAShw2.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ponomarenko/Documents/GitHub/hw2_data_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AD2B177-EDE4-8B48-B19E-C18D1589D348}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298F2EBC-B94B-CC4D-8279-4D0593A3AC26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" activeTab="1" xr2:uid="{1543068C-9495-F248-A534-BA833F6EF49B}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" xr2:uid="{1543068C-9495-F248-A534-BA833F6EF49B}"/>
   </bookViews>
   <sheets>
     <sheet name="IV" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="IV2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="86">
   <si>
     <t>1.0</t>
   </si>
@@ -106,12 +106,6 @@
     <t>IS_EMPL</t>
   </si>
   <si>
-    <t>32.048</t>
-  </si>
-  <si>
-    <t>0.657</t>
-  </si>
-  <si>
     <t>INTERVAL</t>
   </si>
   <si>
@@ -124,109 +118,181 @@
     <t>CUSTOMER_CATEGORY_</t>
   </si>
   <si>
-    <t>27.082</t>
-  </si>
-  <si>
-    <t>0.397</t>
-  </si>
-  <si>
     <t>NOMINAL</t>
   </si>
   <si>
     <t>COUNT_ACTIVE_CREDIT_NO_CC</t>
   </si>
   <si>
-    <t>21.997</t>
-  </si>
-  <si>
-    <t>0.166</t>
-  </si>
-  <si>
     <t>CNT_MNTH_FROM_LAST_PMNT</t>
   </si>
   <si>
-    <t>19.47</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
     <t>experience</t>
   </si>
   <si>
-    <t>17.803</t>
-  </si>
-  <si>
     <t>0.113</t>
   </si>
   <si>
     <t>inquiry_14_day</t>
   </si>
   <si>
-    <t>15.702</t>
-  </si>
-  <si>
-    <t>0.101</t>
-  </si>
-  <si>
     <t>income</t>
   </si>
   <si>
-    <t>12.436</t>
-  </si>
-  <si>
-    <t>0.096</t>
-  </si>
-  <si>
     <t>Rejected</t>
   </si>
   <si>
     <t>inquiry_21_day</t>
   </si>
   <si>
-    <t>15.418</t>
-  </si>
-  <si>
-    <t>0.094</t>
-  </si>
-  <si>
     <t>count_mnth_act_passport</t>
   </si>
   <si>
-    <t>12.172</t>
-  </si>
-  <si>
-    <t>0.057</t>
-  </si>
-  <si>
     <t>INCOME_TYPE</t>
   </si>
   <si>
-    <t>8.687</t>
-  </si>
-  <si>
-    <t>0.037</t>
-  </si>
-  <si>
     <t>EDUCATION_</t>
   </si>
   <si>
-    <t>8.972</t>
-  </si>
-  <si>
-    <t>0.034</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
-    <t>6.467</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
     <t>DEPENDANT_NUMBER</t>
+  </si>
+  <si>
+    <t>34.449</t>
+  </si>
+  <si>
+    <t>0.816</t>
+  </si>
+  <si>
+    <t>28.673</t>
+  </si>
+  <si>
+    <t>0.454</t>
+  </si>
+  <si>
+    <t>22.592</t>
+  </si>
+  <si>
+    <t>0.217</t>
+  </si>
+  <si>
+    <t>18.663</t>
+  </si>
+  <si>
+    <t>0.136</t>
+  </si>
+  <si>
+    <t>19.603</t>
+  </si>
+  <si>
+    <t>17.382</t>
+  </si>
+  <si>
+    <t>0.117</t>
+  </si>
+  <si>
+    <t>17.342</t>
+  </si>
+  <si>
+    <t>17.464</t>
+  </si>
+  <si>
+    <t>0.104</t>
+  </si>
+  <si>
+    <t>16.453</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>9.868</t>
+  </si>
+  <si>
+    <t>0.032</t>
+  </si>
+  <si>
+    <t>8.033</t>
+  </si>
+  <si>
+    <t>0.029</t>
+  </si>
+  <si>
+    <t>5.201</t>
+  </si>
+  <si>
+    <t>0.013</t>
+  </si>
+  <si>
+    <t>98.041</t>
+  </si>
+  <si>
+    <t>13.548</t>
+  </si>
+  <si>
+    <t>81.859</t>
+  </si>
+  <si>
+    <t>4.074</t>
+  </si>
+  <si>
+    <t>43.686</t>
+  </si>
+  <si>
+    <t>1.201</t>
+  </si>
+  <si>
+    <t>34.149</t>
+  </si>
+  <si>
+    <t>0.556</t>
+  </si>
+  <si>
+    <t>22.941</t>
+  </si>
+  <si>
+    <t>0.207</t>
+  </si>
+  <si>
+    <t>18.468</t>
+  </si>
+  <si>
+    <t>0.123</t>
+  </si>
+  <si>
+    <t>10.026</t>
+  </si>
+  <si>
+    <t>0.099</t>
+  </si>
+  <si>
+    <t>15.515</t>
+  </si>
+  <si>
+    <t>0.095</t>
+  </si>
+  <si>
+    <t>15.269</t>
+  </si>
+  <si>
+    <t>12.813</t>
+  </si>
+  <si>
+    <t>0.066</t>
+  </si>
+  <si>
+    <t>12.131</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>4.409</t>
+  </si>
+  <si>
+    <t>0.009</t>
   </si>
 </sst>
 </file>
@@ -580,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF77E00-0A06-7D40-8173-C79DA7F46F18}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -623,22 +689,22 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
@@ -646,25 +712,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
         <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
@@ -672,25 +738,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
@@ -698,25 +764,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
@@ -724,25 +790,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
@@ -750,25 +816,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
         <v>8</v>
@@ -776,25 +842,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -802,25 +868,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
@@ -828,25 +894,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -854,25 +920,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
@@ -880,25 +946,25 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
         <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
@@ -906,7 +972,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>61</v>
@@ -915,16 +981,16 @@
         <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
         <v>27</v>
-      </c>
-      <c r="G13" t="s">
-        <v>25</v>
       </c>
       <c r="H13" t="s">
         <v>3</v>
@@ -932,7 +998,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -941,16 +1007,16 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H14" t="s">
         <v>10</v>
@@ -963,12 +1029,382 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EBDB1D-398C-714C-B5E6-E440477526F7}">
-  <dimension ref="A1"/>
+  <dimension ref="A23:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SAShw2.xlsx
+++ b/SAShw2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ponomarenko/Documents/GitHub/hw2_data_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298F2EBC-B94B-CC4D-8279-4D0593A3AC26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B109648-0C92-F94C-9948-59D09DF62B13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" xr2:uid="{1543068C-9495-F248-A534-BA833F6EF49B}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" activeTab="1" xr2:uid="{1543068C-9495-F248-A534-BA833F6EF49B}"/>
   </bookViews>
   <sheets>
     <sheet name="IV" sheetId="2" r:id="rId1"/>
@@ -646,7 +646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF77E00-0A06-7D40-8173-C79DA7F46F18}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1029,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EBDB1D-398C-714C-B5E6-E440477526F7}">
-  <dimension ref="A23:H36"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1040,367 +1040,367 @@
     <col min="8" max="8" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>14</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>39</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B2" t="s">
         <v>63</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C2" t="s">
         <v>64</v>
       </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="F24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>36</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B3" t="s">
         <v>65</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C3" t="s">
         <v>66</v>
       </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="F25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B4" t="s">
         <v>67</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C4" t="s">
         <v>68</v>
       </c>
-      <c r="D26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="F26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B5" t="s">
         <v>69</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C5" t="s">
         <v>70</v>
       </c>
-      <c r="D27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="F27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B6" t="s">
         <v>71</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C6" t="s">
         <v>72</v>
       </c>
-      <c r="D28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="F28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B7" t="s">
         <v>73</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C7" t="s">
         <v>74</v>
       </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="F29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>38</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B8" t="s">
         <v>75</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C8" t="s">
         <v>76</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E8" t="s">
         <v>34</v>
       </c>
-      <c r="F30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B9" t="s">
         <v>77</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C9" t="s">
         <v>78</v>
       </c>
-      <c r="D31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="F31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>35</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B10" t="s">
         <v>79</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C10" t="s">
         <v>78</v>
       </c>
-      <c r="D32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
         <v>34</v>
       </c>
-      <c r="F32" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B11" t="s">
         <v>80</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C11" t="s">
         <v>81</v>
       </c>
-      <c r="D33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
         <v>34</v>
       </c>
-      <c r="F33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B12" t="s">
         <v>82</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C12" t="s">
         <v>83</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E12" t="s">
         <v>34</v>
       </c>
-      <c r="F34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
         <v>27</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B13" t="s">
         <v>84</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C13" t="s">
         <v>85</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E13" t="s">
         <v>34</v>
       </c>
-      <c r="F35" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
         <v>27</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>40</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C14" t="s">
         <v>1</v>
       </c>
-      <c r="D36" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
         <v>34</v>
       </c>
-      <c r="F36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" t="s">
-        <v>23</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
         <v>10</v>
       </c>
     </row>
